--- a/df_empleo_1.xlsx
+++ b/df_empleo_1.xlsx
@@ -370,7 +370,7 @@
         <v>44562</v>
       </c>
       <c r="B2" t="n">
-        <v>2751232</v>
+        <v>2689665</v>
       </c>
     </row>
     <row r="3">
@@ -378,7 +378,7 @@
         <v>44593</v>
       </c>
       <c r="B3" t="n">
-        <v>2755088</v>
+        <v>2697321</v>
       </c>
     </row>
     <row r="4">
@@ -386,7 +386,7 @@
         <v>44621</v>
       </c>
       <c r="B4" t="n">
-        <v>2771283</v>
+        <v>2711757</v>
       </c>
     </row>
     <row r="5">
@@ -394,7 +394,7 @@
         <v>44652</v>
       </c>
       <c r="B5" t="n">
-        <v>2778650</v>
+        <v>2719111</v>
       </c>
     </row>
     <row r="6">
@@ -402,7 +402,7 @@
         <v>44682</v>
       </c>
       <c r="B6" t="n">
-        <v>2796089</v>
+        <v>2735762</v>
       </c>
     </row>
     <row r="7">
@@ -410,7 +410,7 @@
         <v>44713</v>
       </c>
       <c r="B7" t="n">
-        <v>2804698</v>
+        <v>2744285</v>
       </c>
     </row>
     <row r="8">
@@ -418,7 +418,7 @@
         <v>44743</v>
       </c>
       <c r="B8" t="n">
-        <v>2815554</v>
+        <v>2754670</v>
       </c>
     </row>
     <row r="9">
@@ -426,7 +426,7 @@
         <v>44774</v>
       </c>
       <c r="B9" t="n">
-        <v>2834149</v>
+        <v>2771374</v>
       </c>
     </row>
     <row r="10">
@@ -434,7 +434,7 @@
         <v>44805</v>
       </c>
       <c r="B10" t="n">
-        <v>2850675</v>
+        <v>2787612</v>
       </c>
     </row>
     <row r="11">
@@ -442,7 +442,7 @@
         <v>44835</v>
       </c>
       <c r="B11" t="n">
-        <v>2864899</v>
+        <v>2801134</v>
       </c>
     </row>
     <row r="12">
@@ -450,7 +450,7 @@
         <v>44866</v>
       </c>
       <c r="B12" t="n">
-        <v>2875358</v>
+        <v>2811397</v>
       </c>
     </row>
     <row r="13">
@@ -458,7 +458,7 @@
         <v>44896</v>
       </c>
       <c r="B13" t="n">
-        <v>2868284</v>
+        <v>2806988</v>
       </c>
     </row>
     <row r="14">
@@ -466,7 +466,7 @@
         <v>44927</v>
       </c>
       <c r="B14" t="n">
-        <v>2862040</v>
+        <v>2796500</v>
       </c>
     </row>
     <row r="15">
@@ -474,7 +474,7 @@
         <v>44958</v>
       </c>
       <c r="B15" t="n">
-        <v>2848297</v>
+        <v>2788316</v>
       </c>
     </row>
     <row r="16">
@@ -482,7 +482,7 @@
         <v>44986</v>
       </c>
       <c r="B16" t="n">
-        <v>2856429</v>
+        <v>2795581</v>
       </c>
     </row>
   </sheetData>
